--- a/FinalResults.xlsx
+++ b/FinalResults.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="49">
   <si>
     <t>FUNCTION</t>
   </si>
@@ -164,13 +164,13 @@
     <t>Comparison results of the 10 chaotic maps using 15 benchmark test functions</t>
   </si>
   <si>
-    <t>Statistical results of the Benchmark test functions from RUN and 10 other multi-objective optimization algorithms</t>
-  </si>
-  <si>
     <t>Comparison results of the 10 chaotic maps for optimized circuit design</t>
   </si>
   <si>
     <t>Optimized Circuit Design results for all algorithms</t>
+  </si>
+  <si>
+    <t>Statistical results of CMRUN and 11 other algorithms using 15 benchmark functions</t>
   </si>
 </sst>
 </file>
@@ -258,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -275,18 +275,17 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -296,6 +295,8 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,7 +591,7 @@
     <col min="3" max="14" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>45</v>
       </c>
@@ -604,48 +605,54 @@
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="16">
-        <v>2.64E-3</v>
+      <c r="B3" s="4">
+        <v>2.1400000000000004E-3</v>
       </c>
       <c r="C3" s="4">
         <v>2.7E-4</v>
@@ -656,7 +663,7 @@
       <c r="E3" s="4">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="17">
         <v>7.1599999999999997E-3</v>
       </c>
       <c r="G3" s="4">
@@ -674,8 +681,11 @@
       <c r="K3" s="4">
         <v>8.1000000000000006E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -709,18 +719,21 @@
       <c r="K4" s="4">
         <v>-40010399</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="17">
-        <v>-13.9969</v>
-      </c>
-      <c r="C5" s="17">
+      <c r="B5" s="4">
+        <v>-13.95701</v>
+      </c>
+      <c r="C5" s="15">
         <v>-13.9773</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <v>-13.980899999999998</v>
       </c>
       <c r="E5" s="4">
@@ -729,13 +742,13 @@
       <c r="F5" s="4">
         <v>-13.991199999999999</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <v>-13.996600000000001</v>
       </c>
       <c r="H5" s="4">
         <v>-13.995699999999999</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="15">
         <v>-13.974399999999999</v>
       </c>
       <c r="J5" s="4">
@@ -744,43 +757,49 @@
       <c r="K5" s="4">
         <v>-13.9467</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="6">
+        <v>15.2</v>
+      </c>
+      <c r="C6" s="15">
+        <v>15.0442</v>
+      </c>
+      <c r="D6" s="15">
+        <v>15.012</v>
+      </c>
+      <c r="E6" s="15">
+        <v>15.0662</v>
+      </c>
+      <c r="F6" s="15">
         <v>15.2288</v>
       </c>
-      <c r="C6" s="17">
-        <v>15.0442</v>
-      </c>
-      <c r="D6" s="17">
-        <v>15.012</v>
-      </c>
-      <c r="E6" s="17">
+      <c r="G6" s="15">
         <v>15.0662</v>
       </c>
-      <c r="F6" s="17">
+      <c r="H6" s="15">
         <v>15.2288</v>
       </c>
-      <c r="G6" s="17">
+      <c r="I6" s="15">
+        <v>15.2288</v>
+      </c>
+      <c r="J6" s="15">
         <v>15.0662</v>
       </c>
-      <c r="H6" s="17">
+      <c r="K6" s="15">
         <v>15.2288</v>
       </c>
-      <c r="I6" s="17">
-        <v>15.2288</v>
-      </c>
-      <c r="J6" s="17">
-        <v>15.0662</v>
-      </c>
-      <c r="K6" s="17">
-        <v>15.2288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -814,24 +833,27 @@
       <c r="K7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="17">
-        <v>-8518.8016000000007</v>
-      </c>
-      <c r="C8" s="17">
+      <c r="B8" s="4">
+        <v>-7891.9</v>
+      </c>
+      <c r="C8" s="15">
         <v>-6410.6593999999996</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="15">
         <v>-4394.3693999999996</v>
       </c>
       <c r="E8" s="4">
         <v>-2794.1026000000002</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="15">
         <v>-2841.8593999999998</v>
       </c>
       <c r="G8" s="4">
@@ -849,15 +871,18 @@
       <c r="K8" s="4">
         <v>-6127.6423999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="4">
-        <v>-154.9</v>
-      </c>
-      <c r="C9" s="17">
+      <c r="B9" s="6">
+        <v>-155</v>
+      </c>
+      <c r="C9" s="15">
         <v>-138.90700000000001</v>
       </c>
       <c r="D9" s="4">
@@ -884,13 +909,16 @@
       <c r="K9" s="4">
         <v>-102.03</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="17">
-        <v>184</v>
+      <c r="B10" s="4">
+        <v>184.58569</v>
       </c>
       <c r="C10" s="4">
         <v>201</v>
@@ -904,10 +932,10 @@
       <c r="F10" s="4">
         <v>203</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="17">
         <v>206.14819000000003</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="17">
         <v>205.84503999999998</v>
       </c>
       <c r="I10" s="4">
@@ -916,16 +944,19 @@
       <c r="J10" s="4">
         <v>189.66480000000001</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="17">
         <v>202.46537000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="4">
-        <v>0.77825999999999995</v>
+        <v>0.71526999999999996</v>
       </c>
       <c r="C11" s="4">
         <v>0.63600000000000001</v>
@@ -954,13 +985,16 @@
       <c r="K11" s="4">
         <v>0.67900000000000005</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="17">
-        <v>8.2631999999999994</v>
+      <c r="B12" s="4">
+        <v>8.2634899999999991</v>
       </c>
       <c r="C12" s="4">
         <v>8.2515999999999998</v>
@@ -989,13 +1023,16 @@
       <c r="K12" s="4">
         <v>8.3559999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="4">
-        <v>-10594861</v>
+        <v>-10647950.518259998</v>
       </c>
       <c r="C13" s="4">
         <v>-10378956</v>
@@ -1024,13 +1061,16 @@
       <c r="K13" s="4">
         <v>-1092985.6000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="4">
-        <v>-500699.8</v>
+        <v>-503492</v>
       </c>
       <c r="C14" s="4">
         <v>-498000</v>
@@ -1059,13 +1099,16 @@
       <c r="K14" s="4">
         <v>-493000</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="4">
-        <v>-489000</v>
+        <v>-495803</v>
       </c>
       <c r="C15" s="4">
         <v>-480000</v>
@@ -1094,13 +1137,16 @@
       <c r="K15" s="4">
         <v>-487000</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="4">
-        <v>-37.61</v>
+        <v>-36.980650000000004</v>
       </c>
       <c r="C16" s="4">
         <v>-37.119999999999997</v>
@@ -1111,7 +1157,7 @@
       <c r="E16" s="4">
         <v>-36.78</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="17">
         <v>-36.468030000000006</v>
       </c>
       <c r="G16" s="4">
@@ -1129,45 +1175,67 @@
       <c r="K16" s="4">
         <v>36.78</v>
       </c>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="4">
-        <v>-3.7999999999982492E-4</v>
+        <v>-6.1000000000003272E-4</v>
       </c>
       <c r="C17" s="4">
         <v>-6.0999999999999943E-4</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="17">
         <v>-1.4699999999999713E-3</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="17">
         <v>-5.0000000000016698E-4</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="17">
         <v>-6.9999999999981188E-4</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="17">
         <v>-2.4999999999997247E-4</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="17">
         <v>-4.6999999999997044E-4</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="17">
         <v>-1.0700000000000154E-3</v>
       </c>
       <c r="J17" s="4">
         <v>0.01</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="17">
         <v>-5.8000000000002494E-4</v>
       </c>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -1218,7 +1286,7 @@
       <c r="L20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="15" t="s">
+      <c r="M20" s="14" t="s">
         <v>11</v>
       </c>
       <c r="N20" s="1" t="s">
@@ -1226,14 +1294,14 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="16">
-        <v>2.64E-3</v>
+      <c r="C21" s="4">
+        <v>2.1400000000000004E-3</v>
       </c>
       <c r="D21" s="5">
         <v>17.5</v>
@@ -1270,12 +1338,12 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="4">
-        <v>1.756394228986192E-4</v>
+        <v>2.8858967410494789E-3</v>
       </c>
       <c r="D22" s="6">
         <v>52.3</v>
@@ -1312,7 +1380,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1356,7 +1424,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
@@ -1398,7 +1466,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1428,21 +1496,21 @@
       <c r="J25" s="5">
         <v>-14</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="6">
         <v>-14</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="6">
         <v>-14</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="6">
         <v>-13.99985</v>
       </c>
-      <c r="N25" s="2">
-        <v>-3.7996500000000002</v>
+      <c r="N25" s="6">
+        <v>-3.7996500000000011</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="1" t="s">
         <v>15</v>
       </c>
@@ -1470,21 +1538,21 @@
       <c r="J26" s="6">
         <v>0</v>
       </c>
-      <c r="K26" s="2">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
-      <c r="M26" s="2">
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
         <v>1.7464249196532281E-4</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="6">
         <v>15.580528236054771</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1514,26 +1582,26 @@
       <c r="J27" s="5">
         <v>15.000050000000002</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="6">
         <v>15.000020000000001</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="6">
         <v>15.000182277100004</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="6">
         <v>15.000312139229999</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="6">
         <v>15.000159999999999</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="6">
-        <v>0.214</v>
+      <c r="C28" s="4">
+        <v>0.21855636549869714</v>
       </c>
       <c r="D28" s="6">
         <v>0.36699999999999999</v>
@@ -1556,21 +1624,21 @@
       <c r="J28" s="6">
         <v>4.9999999999883471E-5</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="6">
         <v>5.9999999999860153E-5</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="6">
         <v>2.5220699732489567E-4</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="6">
         <v>2.3752940933564E-4</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="6">
         <v>1.8547236991013307E-4</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1600,21 +1668,21 @@
       <c r="J29" s="5">
         <v>0</v>
       </c>
-      <c r="K29" s="2">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2">
+      <c r="K29" s="6">
+        <v>0</v>
+      </c>
+      <c r="L29" s="6">
         <v>1.0000800000000001E-5</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="6">
         <v>3.6737999999999997E-18</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="6">
         <v>6.735E-15</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="1" t="s">
         <v>15</v>
       </c>
@@ -1642,28 +1710,28 @@
       <c r="J30" s="6">
         <v>0</v>
       </c>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
+      <c r="K30" s="6">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6">
         <v>2.9999733428148999E-5</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="6">
         <v>5.6118221960429209E-18</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="6">
         <v>6.735E-15</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="17">
-        <v>-8518.8016000000007</v>
+      <c r="C31" s="4">
+        <v>-7891.9</v>
       </c>
       <c r="D31" s="5">
         <v>-534000</v>
@@ -1700,12 +1768,12 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="6">
-        <v>52700</v>
+      <c r="C32" s="4">
+        <v>6350.8374164357256</v>
       </c>
       <c r="D32" s="6">
         <v>1520000</v>
@@ -1742,7 +1810,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1786,7 +1854,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="1" t="s">
         <v>15</v>
       </c>
@@ -1828,14 +1896,14 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="17">
-        <v>184</v>
+      <c r="C35" s="4">
+        <v>184.58569</v>
       </c>
       <c r="D35" s="5">
         <v>88.3</v>
@@ -1867,17 +1935,17 @@
       <c r="M35" s="6">
         <v>0</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35" s="6">
         <v>12.191750000000001</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="6">
-        <v>14</v>
+      <c r="C36" s="4">
+        <v>61.902002145769842</v>
       </c>
       <c r="D36" s="6">
         <v>23.5</v>
@@ -1909,19 +1977,19 @@
       <c r="M36" s="6">
         <v>0</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36" s="6">
         <v>6.9820424714047657</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="4">
-        <v>0.77825999999999995</v>
+        <v>0.71526999999999996</v>
       </c>
       <c r="D37" s="5">
         <v>1.87</v>
@@ -1953,17 +2021,17 @@
       <c r="M37" s="6">
         <v>1</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37" s="6">
         <v>-6.2207699999999999</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="6">
-        <v>0.14576667108773556</v>
+      <c r="C38" s="4">
+        <v>6.7431951625323755E-2</v>
       </c>
       <c r="D38" s="6">
         <v>0.97799999999999998</v>
@@ -1995,19 +2063,19 @@
       <c r="M38" s="6">
         <v>0</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="6">
         <v>0.10469696318422998</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="17">
-        <v>8.2631999999999994</v>
+      <c r="C39" s="4">
+        <v>8.2634899999999991</v>
       </c>
       <c r="D39" s="5">
         <v>6.75</v>
@@ -2039,17 +2107,17 @@
       <c r="M39" s="6">
         <v>0.28077999999999997</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39" s="6">
         <v>0.28080000000000005</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="6">
-        <v>2.13</v>
+      <c r="C40" s="4">
+        <v>0.13809872157264882</v>
       </c>
       <c r="D40" s="6">
         <v>0.35899999999999999</v>
@@ -2072,28 +2140,28 @@
       <c r="J40" s="6">
         <v>0.54980588901902472</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="6">
         <v>1.3209839885857835</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40" s="6">
         <v>1.2961753730433236</v>
       </c>
-      <c r="M40" s="2">
-        <v>0</v>
-      </c>
-      <c r="N40" s="2">
+      <c r="M40" s="6">
+        <v>0</v>
+      </c>
+      <c r="N40" s="6">
         <v>5.5511151231257827E-17</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C41" s="4">
-        <v>-10594861</v>
+        <v>-10647950.518259998</v>
       </c>
       <c r="D41" s="5">
         <v>-10000000</v>
@@ -2130,12 +2198,12 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="6">
-        <v>737000</v>
+      <c r="C42" s="4">
+        <v>885423.00776785298</v>
       </c>
       <c r="D42" s="6">
         <v>1130000</v>
@@ -2172,14 +2240,14 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C43" s="4">
-        <v>-500699.8</v>
+        <v>-503492</v>
       </c>
       <c r="D43" s="5">
         <v>-238000</v>
@@ -2216,12 +2284,12 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="6">
-        <v>16000</v>
+      <c r="C44" s="4">
+        <v>16235.088419839296</v>
       </c>
       <c r="D44" s="6">
         <v>23300</v>
@@ -2258,14 +2326,14 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="4">
-        <v>-489000</v>
+      <c r="C45" s="6">
+        <v>-496000</v>
       </c>
       <c r="D45" s="5">
         <v>-238000</v>
@@ -2302,12 +2370,12 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="6">
-        <v>887</v>
+        <v>8870</v>
       </c>
       <c r="D46" s="6">
         <v>23300</v>
@@ -2344,14 +2412,14 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="4">
-        <v>-37.61</v>
+        <v>-36.980650000000004</v>
       </c>
       <c r="D47" s="5">
         <v>-28.7</v>
@@ -2374,26 +2442,26 @@
       <c r="J47" s="5">
         <v>-47.733709999999995</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="6">
         <v>-47.594360000000009</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L47" s="6">
         <v>-47.406060000000004</v>
       </c>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N47" s="6">
         <v>-47.730159999999998</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="22"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="6">
-        <v>1.96</v>
+      <c r="C48" s="4">
+        <v>1.9728590599685514</v>
       </c>
       <c r="D48" s="6">
         <v>1.38</v>
@@ -2416,28 +2484,28 @@
       <c r="J48" s="6">
         <v>5.8176369773300365E-3</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="6">
         <v>0.17019557691079976</v>
       </c>
-      <c r="L48" s="2">
+      <c r="L48" s="6">
         <v>0.21889758427173225</v>
       </c>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N48" s="2">
+      <c r="N48" s="6">
         <v>2.0069439454056287E-2</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C49" s="4">
-        <v>-3.7999999999982492E-4</v>
+        <v>-6.1000000000003272E-4</v>
       </c>
       <c r="D49" s="5">
         <v>1.7000000000000001E-2</v>
@@ -2460,26 +2528,26 @@
       <c r="J49" s="5">
         <v>-2.8000000000000247E-3</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49" s="6">
         <v>-2.8000000000000247E-3</v>
       </c>
-      <c r="L49" s="2">
+      <c r="L49" s="6">
         <v>-2.6789999999999982E-3</v>
       </c>
-      <c r="M49" s="2">
+      <c r="M49" s="6">
         <v>-2.6279999999999971E-3</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N49" s="6">
         <v>-2.7200000000000336E-3</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="6">
-        <v>1.91E-3</v>
+      <c r="C50" s="4">
+        <v>2.2196621364522994E-3</v>
       </c>
       <c r="D50" s="6">
         <v>2.6800000000000001E-2</v>
@@ -2502,389 +2570,425 @@
       <c r="J50" s="6">
         <v>0</v>
       </c>
-      <c r="K50" s="2">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2">
+      <c r="K50" s="6">
+        <v>0</v>
+      </c>
+      <c r="L50" s="6">
         <v>3.832753579349267E-5</v>
       </c>
-      <c r="M50" s="2">
+      <c r="M50" s="6">
         <v>1.4743133995184741E-4</v>
       </c>
-      <c r="N50" s="2">
+      <c r="N50" s="6">
         <v>9.7979589711316324E-5</v>
       </c>
     </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+    </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I53" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J53" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K53" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="A53" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="22"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54">
-        <v>227.202</v>
-      </c>
-      <c r="C54">
-        <v>227.34469999999999</v>
-      </c>
-      <c r="D54">
-        <v>227.40309999999999</v>
-      </c>
-      <c r="E54">
-        <v>227.1816</v>
-      </c>
-      <c r="F54">
-        <v>227.1996</v>
-      </c>
-      <c r="G54">
-        <v>227.3783</v>
-      </c>
-      <c r="H54">
-        <v>227.24420000000001</v>
-      </c>
-      <c r="I54">
-        <v>227.3169</v>
-      </c>
-      <c r="J54">
-        <v>227.20859999999999</v>
-      </c>
-      <c r="K54">
-        <v>227.2878</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N54" s="22"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55">
+        <v>227.202</v>
+      </c>
+      <c r="C55">
+        <v>227.34469999999999</v>
+      </c>
+      <c r="D55">
+        <v>227.40309999999999</v>
+      </c>
+      <c r="E55">
+        <v>227.1816</v>
+      </c>
+      <c r="F55">
+        <v>227.1996</v>
+      </c>
+      <c r="G55">
+        <v>227.3783</v>
+      </c>
+      <c r="H55">
+        <v>227.24420000000001</v>
+      </c>
+      <c r="I55">
+        <v>227.3169</v>
+      </c>
+      <c r="J55">
+        <v>227.20859999999999</v>
+      </c>
+      <c r="K55">
+        <v>227.2878</v>
+      </c>
+      <c r="N55" s="22"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D55">
+      <c r="D56">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="E55">
+      <c r="E56">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="F55">
+      <c r="F56">
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="G55">
+      <c r="G56">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="H55">
+      <c r="H56">
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="I55">
+      <c r="I56">
         <v>4.87E-2</v>
       </c>
-      <c r="J55">
+      <c r="J56">
         <v>4.6300000000000001E-2</v>
       </c>
-      <c r="K55">
+      <c r="K56">
         <v>4.7899999999999998E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
+      <c r="N56" s="22"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="8">
-        <f t="shared" ref="B56:K56" si="0">B54+B55</f>
+      <c r="B57" s="8">
+        <f t="shared" ref="B57:K57" si="0">B55+B56</f>
         <v>227.25280000000001</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C57" s="8">
         <f t="shared" si="0"/>
         <v>227.345</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D57" s="8">
         <f t="shared" si="0"/>
         <v>227.45699999999999</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E57" s="8">
         <f t="shared" si="0"/>
         <v>227.23410000000001</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F57" s="8">
         <f t="shared" si="0"/>
         <v>227.25480000000002</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G57" s="8">
         <f t="shared" si="0"/>
         <v>227.4298</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H57" s="8">
         <f t="shared" si="0"/>
         <v>227.291</v>
       </c>
-      <c r="I56" s="8">
+      <c r="I57" s="8">
         <f t="shared" si="0"/>
         <v>227.3656</v>
       </c>
-      <c r="J56" s="8">
+      <c r="J57" s="8">
         <f t="shared" si="0"/>
         <v>227.25489999999999</v>
       </c>
-      <c r="K56" s="8">
+      <c r="K57" s="8">
         <f t="shared" si="0"/>
         <v>227.3357</v>
       </c>
+      <c r="L57" s="8"/>
+      <c r="N57" s="22"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-    </row>
-    <row r="59" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="9" t="s">
+      <c r="N58" s="22"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="22"/>
+    </row>
+    <row r="60" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="B60" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="D60" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="E60" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="F60" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="G60" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I59" s="11" t="s">
+      <c r="H60" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J59" s="11" t="s">
+      <c r="I60" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K59" s="11" t="s">
+      <c r="J60" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L59" s="12" t="s">
+      <c r="K60" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M59" s="11" t="s">
+      <c r="L60" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B60">
+      <c r="N60" s="22"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>227.202</v>
       </c>
-      <c r="C60" s="8">
+      <c r="B61" s="8">
         <v>227.50700000000001</v>
       </c>
-      <c r="D60" s="8">
+      <c r="C61" s="8">
         <v>258.28458869210601</v>
       </c>
-      <c r="E60" s="8">
+      <c r="D61" s="8">
         <v>227.978912901835</v>
       </c>
-      <c r="F60" s="8">
+      <c r="E61" s="8">
         <v>227.62739999999999</v>
       </c>
-      <c r="G60" s="8">
+      <c r="F61" s="8">
         <v>235.7833</v>
       </c>
-      <c r="H60" s="8">
+      <c r="G61" s="8">
         <v>227.76300000000001</v>
       </c>
-      <c r="I60" s="10">
+      <c r="H61" s="10">
         <v>227.92509999999999</v>
       </c>
-      <c r="J60" s="10">
+      <c r="I61" s="10">
         <v>227.7534</v>
       </c>
-      <c r="K60" s="10">
+      <c r="J61" s="10">
         <v>227.25357015514601</v>
       </c>
-      <c r="L60" s="10">
+      <c r="K61" s="10">
         <v>227.4659</v>
       </c>
-      <c r="M60" s="10">
+      <c r="L61" s="10">
         <v>229.07329999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B61">
+      <c r="M61" s="18"/>
+      <c r="N61" s="22"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="C61" s="8">
+      <c r="B62" s="8">
         <v>7.4289999999999995E-2</v>
       </c>
-      <c r="D61" s="8">
+      <c r="C62" s="8">
         <v>4.3990927923727597E-3</v>
       </c>
-      <c r="E61" s="8">
+      <c r="D62" s="8">
         <v>7.9716490104291896E-2</v>
       </c>
-      <c r="F61" s="8">
+      <c r="E62" s="8">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="G61" s="8">
+      <c r="F62" s="8">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H61" s="8">
+      <c r="G62" s="8">
         <v>1.9267000000000001E-4</v>
       </c>
-      <c r="I61" s="10">
+      <c r="H62" s="10">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="J61" s="10">
+      <c r="I62" s="10">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="K61" s="10">
+      <c r="J62" s="10">
         <v>5.6177085057078802E-2</v>
       </c>
-      <c r="L61" s="10">
+      <c r="K62" s="10">
         <v>1.5563999999999999E-4</v>
       </c>
-      <c r="M61" s="10">
+      <c r="L62" s="10">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62" s="8">
-        <f t="shared" ref="B62:M62" si="1">B60+B61</f>
+      <c r="M62" s="23"/>
+      <c r="N62" s="22"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
+        <f t="shared" ref="A63:L63" si="1">A61+A62</f>
         <v>227.25280000000001</v>
       </c>
-      <c r="C62" s="8">
+      <c r="B63" s="8">
         <f t="shared" si="1"/>
         <v>227.58129</v>
       </c>
-      <c r="D62" s="8">
+      <c r="C63" s="8">
         <f t="shared" si="1"/>
         <v>258.28898778489838</v>
       </c>
-      <c r="E62" s="8">
+      <c r="D63" s="8">
         <f t="shared" si="1"/>
         <v>228.05862939193929</v>
       </c>
-      <c r="F62" s="8">
+      <c r="E63" s="8">
         <f t="shared" si="1"/>
         <v>227.6276</v>
       </c>
-      <c r="G62" s="8">
+      <c r="F63" s="8">
         <f t="shared" si="1"/>
         <v>235.7835</v>
       </c>
-      <c r="H62" s="8">
+      <c r="G63" s="8">
         <f t="shared" si="1"/>
         <v>227.76319267</v>
       </c>
-      <c r="I62" s="8">
+      <c r="H63" s="8">
         <f t="shared" si="1"/>
         <v>227.92529999999999</v>
       </c>
-      <c r="J62" s="8">
+      <c r="I63" s="8">
         <f t="shared" si="1"/>
         <v>227.75360000000001</v>
       </c>
-      <c r="K62" s="8">
+      <c r="J63" s="8">
         <f t="shared" si="1"/>
         <v>227.30974724020308</v>
       </c>
-      <c r="L62" s="8">
+      <c r="K63" s="8">
         <f t="shared" si="1"/>
         <v>227.46605564000001</v>
       </c>
-      <c r="M62" s="8">
+      <c r="L63" s="8">
         <f t="shared" si="1"/>
         <v>229.0735</v>
       </c>
+      <c r="M63" s="23"/>
+      <c r="N63" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="A53:M53"/>
+    <mergeCell ref="A59:M59"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A19:N19"/>
-    <mergeCell ref="A52:M52"/>
-    <mergeCell ref="A58:M58"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A43:A44"/>
